--- a/biology/Biochimie/Henrik_Dam/Henrik_Dam.xlsx
+++ b/biology/Biochimie/Henrik_Dam/Henrik_Dam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henrik Dam (21 février 1895 à Copenhague - 17 avril 1976 à Copenhague) est un biochimiste danois. Il est lauréat de la moitié du prix Nobel de physiologie ou médecine de 1943[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henrik Dam (21 février 1895 à Copenhague - 17 avril 1976 à Copenhague) est un biochimiste danois. Il est lauréat de la moitié du prix Nobel de physiologie ou médecine de 1943.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a réussi à prouver l'existence de la vitamine K (1920) et à l'isoler à partir de la luzerne (1936). 
-En 1943, il est lauréat de la moitié du prix Nobel de physiologie ou médecine (l'autre moitié a été remise à Edward Adelbert Doisy) « pour sa découverte de la vitamine K[1] ».
+En 1943, il est lauréat de la moitié du prix Nobel de physiologie ou médecine (l'autre moitié a été remise à Edward Adelbert Doisy) « pour sa découverte de la vitamine K ».
 </t>
         </is>
       </c>
